--- a/BEMFSimulation/ExcelResults/LineVoltage3000.xlsx
+++ b/BEMFSimulation/ExcelResults/LineVoltage3000.xlsx
@@ -408,13 +408,13 @@
         <v>5.555555555555556e-05</v>
       </c>
       <c r="B2">
-        <v>-195.0805251671383</v>
+        <v>-196.9169479808245</v>
       </c>
       <c r="C2">
-        <v>405.0412623382995</v>
+        <v>412.7416451935117</v>
       </c>
       <c r="D2">
-        <v>-209.9607371711612</v>
+        <v>-215.8246972126871</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -422,13 +422,13 @@
         <v>0.0001111111111111111</v>
       </c>
       <c r="B3">
-        <v>-175.7201069430585</v>
+        <v>-180.6430857150686</v>
       </c>
       <c r="C3">
-        <v>393.5457985578756</v>
+        <v>406.0691849617052</v>
       </c>
       <c r="D3">
-        <v>-217.8256916148171</v>
+        <v>-225.4260992466367</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -436,13 +436,13 @@
         <v>0.0001666666666666667</v>
       </c>
       <c r="B4">
-        <v>-135.4584848953836</v>
+        <v>-143.7101380813436</v>
       </c>
       <c r="C4">
-        <v>369.7991430171097</v>
+        <v>385.1265728954363</v>
       </c>
       <c r="D4">
-        <v>-234.3406581217261</v>
+        <v>-241.4164348140927</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -450,13 +450,13 @@
         <v>0.0002222222222222222</v>
       </c>
       <c r="B5">
-        <v>-82.5770682281174</v>
+        <v>-80.98769237863443</v>
       </c>
       <c r="C5">
-        <v>340.1762193924633</v>
+        <v>341.014467679601</v>
       </c>
       <c r="D5">
-        <v>-257.5991511643459</v>
+        <v>-260.0267753009666</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -464,13 +464,13 @@
         <v>0.0002777777777777778</v>
       </c>
       <c r="B6">
-        <v>-39.80071989154332</v>
+        <v>-38.38283329104949</v>
       </c>
       <c r="C6">
-        <v>320.2491216056598</v>
+        <v>330.2222728782306</v>
       </c>
       <c r="D6">
-        <v>-280.4484017141165</v>
+        <v>-291.8394395871811</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -478,13 +478,13 @@
         <v>0.0003333333333333333</v>
       </c>
       <c r="B7">
-        <v>-17.74821098880119</v>
+        <v>-19.36092454509125</v>
       </c>
       <c r="C7">
-        <v>310.0865902276905</v>
+        <v>320.6798031266972</v>
       </c>
       <c r="D7">
-        <v>-292.3383792388893</v>
+        <v>-301.3188785816059</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -492,13 +492,13 @@
         <v>0.0003888888888888889</v>
       </c>
       <c r="B8">
-        <v>-4.837425477795307</v>
+        <v>-7.24149721337858</v>
       </c>
       <c r="C8">
-        <v>311.3888207551632</v>
+        <v>316.100272376837</v>
       </c>
       <c r="D8">
-        <v>-306.5513952773679</v>
+        <v>-308.8587751634584</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -506,13 +506,13 @@
         <v>0.0004444444444444444</v>
       </c>
       <c r="B9">
-        <v>4.596724959504854</v>
+        <v>5.558800638109233</v>
       </c>
       <c r="C9">
-        <v>307.6053744613516</v>
+        <v>310.3010162475919</v>
       </c>
       <c r="D9">
-        <v>-312.2020994208565</v>
+        <v>-315.8598168857011</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -520,13 +520,13 @@
         <v>0.0005</v>
       </c>
       <c r="B10">
-        <v>17.51189433873267</v>
+        <v>19.65490475810142</v>
       </c>
       <c r="C10">
-        <v>293.1383600202806</v>
+        <v>299.0415301156958</v>
       </c>
       <c r="D10">
-        <v>-310.6502543590132</v>
+        <v>-318.6964348737972</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -534,13 +534,13 @@
         <v>0.0005555555555555556</v>
       </c>
       <c r="B11">
-        <v>39.2789140087491</v>
+        <v>39.45893902423531</v>
       </c>
       <c r="C11">
-        <v>281.4689158184411</v>
+        <v>295.543168671478</v>
       </c>
       <c r="D11">
-        <v>-320.7478298271902</v>
+        <v>-335.0021076957133</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -548,13 +548,13 @@
         <v>0.0006111111111111111</v>
       </c>
       <c r="B12">
-        <v>82.22494748878474</v>
+        <v>84.58902365018811</v>
       </c>
       <c r="C12">
-        <v>258.4612336454061</v>
+        <v>261.1389822584678</v>
       </c>
       <c r="D12">
-        <v>-340.6861811341909</v>
+        <v>-345.7280059086559</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -562,13 +562,13 @@
         <v>0.0006666666666666666</v>
       </c>
       <c r="B13">
-        <v>134.6089461255853</v>
+        <v>140.1848970530012</v>
       </c>
       <c r="C13">
-        <v>235.0629497814148</v>
+        <v>238.3032959419315</v>
       </c>
       <c r="D13">
-        <v>-369.6718959070001</v>
+        <v>-378.4881929949327</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -576,13 +576,13 @@
         <v>0.0007222222222222222</v>
       </c>
       <c r="B14">
-        <v>175.2890321481171</v>
+        <v>182.7626114830838</v>
       </c>
       <c r="C14">
-        <v>217.8158721241423</v>
+        <v>225.2900756650847</v>
       </c>
       <c r="D14">
-        <v>-393.1049042722594</v>
+        <v>-408.0526871481685</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -590,13 +590,13 @@
         <v>0.0007777777777777777</v>
       </c>
       <c r="B15">
-        <v>194.5261942119814</v>
+        <v>195.5526917433684</v>
       </c>
       <c r="C15">
-        <v>209.3247817697508</v>
+        <v>214.5643734337345</v>
       </c>
       <c r="D15">
-        <v>-403.8509759817322</v>
+        <v>-410.1170651771029</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -604,13 +604,13 @@
         <v>0.0008333333333333333</v>
       </c>
       <c r="B16">
-        <v>207.1891499785172</v>
+        <v>209.7566337888659</v>
       </c>
       <c r="C16">
-        <v>206.8582296419966</v>
+        <v>210.5889116133731</v>
       </c>
       <c r="D16">
-        <v>-414.0473796205138</v>
+        <v>-420.3455454022391</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -618,13 +618,13 @@
         <v>0.0008888888888888888</v>
       </c>
       <c r="B17">
-        <v>209.4697893111605</v>
+        <v>214.5556595568634</v>
       </c>
       <c r="C17">
-        <v>195.1403386717151</v>
+        <v>197.0818436544673</v>
       </c>
       <c r="D17">
-        <v>-404.6101279828756</v>
+        <v>-411.6375032113307</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -632,13 +632,13 @@
         <v>0.0009444444444444444</v>
       </c>
       <c r="B18">
-        <v>217.2191089631688</v>
+        <v>225.4314221830923</v>
       </c>
       <c r="C18">
-        <v>175.8312404691947</v>
+        <v>181.4067987593628</v>
       </c>
       <c r="D18">
-        <v>-393.0503494323635</v>
+        <v>-406.838220942455</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -646,13 +646,13 @@
         <v>0.001</v>
       </c>
       <c r="B19">
-        <v>234.6953922151811</v>
+        <v>242.3889221532876</v>
       </c>
       <c r="C19">
-        <v>135.9417395665963</v>
+        <v>143.8207268466348</v>
       </c>
       <c r="D19">
-        <v>-370.6371317817774</v>
+        <v>-386.2096489999223</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -660,13 +660,13 @@
         <v>0.001055555555555556</v>
       </c>
       <c r="B20">
-        <v>258.3328674837534</v>
+        <v>260.8825434418426</v>
       </c>
       <c r="C20">
-        <v>82.65365014558516</v>
+        <v>81.83845220227067</v>
       </c>
       <c r="D20">
-        <v>-340.9865176293386</v>
+        <v>-342.7209956441133</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -674,13 +674,13 @@
         <v>0.001111111111111111</v>
       </c>
       <c r="B21">
-        <v>281.1282887154616</v>
+        <v>292.8835630440387</v>
       </c>
       <c r="C21">
-        <v>39.67181648753198</v>
+        <v>39.11766572902722</v>
       </c>
       <c r="D21">
-        <v>-320.8001052029936</v>
+        <v>-332.0012287730659</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -688,13 +688,13 @@
         <v>0.001166666666666667</v>
       </c>
       <c r="B22">
-        <v>292.7128158573653</v>
+        <v>301.3610552089398</v>
       </c>
       <c r="C22">
-        <v>17.95609143121962</v>
+        <v>19.74306631947351</v>
       </c>
       <c r="D22">
-        <v>-310.6689072885849</v>
+        <v>-321.1041215284133</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -702,13 +702,13 @@
         <v>0.001222222222222223</v>
       </c>
       <c r="B23">
-        <v>306.6302327548086</v>
+        <v>309.4585390134087</v>
       </c>
       <c r="C23">
-        <v>4.983715209467718</v>
+        <v>6.597066120010552</v>
       </c>
       <c r="D23">
-        <v>-311.6139479642763</v>
+        <v>-316.0556051334192</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -716,13 +716,13 @@
         <v>0.001277777777777778</v>
       </c>
       <c r="B24">
-        <v>311.9979392494232</v>
+        <v>317.3442598465102</v>
       </c>
       <c r="C24">
-        <v>-4.681386018273827</v>
+        <v>-6.368464162908168</v>
       </c>
       <c r="D24">
-        <v>-307.3165532311493</v>
+        <v>-310.975795683602</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -730,13 +730,13 @@
         <v>0.001333333333333334</v>
       </c>
       <c r="B25">
-        <v>311.0655765557</v>
+        <v>319.4485021918093</v>
       </c>
       <c r="C25">
-        <v>-17.75889994828223</v>
+        <v>-19.57664907060217</v>
       </c>
       <c r="D25">
-        <v>-293.3066766074178</v>
+        <v>-299.8718531212072</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -744,13 +744,13 @@
         <v>0.00138888888888889</v>
       </c>
       <c r="B26">
-        <v>321.3921943886562</v>
+        <v>334.1373947661804</v>
       </c>
       <c r="C26">
-        <v>-39.34764033935662</v>
+        <v>-38.52444729325431</v>
       </c>
       <c r="D26">
-        <v>-282.0445540492996</v>
+        <v>-295.6129474729261</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -758,13 +758,13 @@
         <v>0.001444444444444445</v>
       </c>
       <c r="B27">
-        <v>341.4394545487873</v>
+        <v>344.2667622947233</v>
       </c>
       <c r="C27">
-        <v>-82.1985673106213</v>
+        <v>-83.25310493706495</v>
       </c>
       <c r="D27">
-        <v>-259.240887238166</v>
+        <v>-261.0136573576584</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -772,13 +772,13 @@
         <v>0.001500000000000001</v>
       </c>
       <c r="B28">
-        <v>370.9694576435289</v>
+        <v>379.0696089181544</v>
       </c>
       <c r="C28">
-        <v>-135.0367278141491</v>
+        <v>-140.4286163884573</v>
       </c>
       <c r="D28">
-        <v>-235.9327298293798</v>
+        <v>-238.640992529697</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -786,13 +786,13 @@
         <v>0.001555555555555557</v>
       </c>
       <c r="B29">
-        <v>393.8277389132061</v>
+        <v>409.7010837897641</v>
       </c>
       <c r="C29">
-        <v>-175.7359879718258</v>
+        <v>-183.5114490044051</v>
       </c>
       <c r="D29">
-        <v>-218.0917509413803</v>
+        <v>-226.1896347853589</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -800,13 +800,13 @@
         <v>0.001611111111111112</v>
       </c>
       <c r="B30">
-        <v>403.8485658949873</v>
+        <v>411.5255558454841</v>
       </c>
       <c r="C30">
-        <v>-194.7589665510995</v>
+        <v>-196.1324192383129</v>
       </c>
       <c r="D30">
-        <v>-209.0895993438878</v>
+        <v>-215.3931366071711</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -814,13 +814,13 @@
         <v>0.001666666666666668</v>
       </c>
       <c r="B31">
-        <v>413.7226516761866</v>
+        <v>419.4624131710872</v>
       </c>
       <c r="C31">
-        <v>-207.1181664215049</v>
+        <v>-209.6851300090307</v>
       </c>
       <c r="D31">
-        <v>-206.6044852546817</v>
+        <v>-209.7772831620564</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -828,13 +828,13 @@
         <v>0.001722222222222224</v>
       </c>
       <c r="B32">
-        <v>404.3022617795347</v>
+        <v>409.0866316445353</v>
       </c>
       <c r="C32">
-        <v>-209.4762921071884</v>
+        <v>-213.9646119673116</v>
       </c>
       <c r="D32">
-        <v>-194.8259696723463</v>
+        <v>-195.1220196772237</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -842,13 +842,13 @@
         <v>0.001777777777777779</v>
       </c>
       <c r="B33">
-        <v>392.8269749527142</v>
+        <v>405.6844395471493</v>
       </c>
       <c r="C33">
-        <v>-217.3374129829965</v>
+        <v>-225.0066212451315</v>
       </c>
       <c r="D33">
-        <v>-175.4895619697178</v>
+        <v>-180.6778183020178</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -856,13 +856,13 @@
         <v>0.001833333333333335</v>
       </c>
       <c r="B34">
-        <v>370.3321508344182</v>
+        <v>386.513581322343</v>
       </c>
       <c r="C34">
-        <v>-234.5785174111307</v>
+        <v>-242.0338820322496</v>
       </c>
       <c r="D34">
-        <v>-135.7536334232875</v>
+        <v>-144.4796992900934</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -870,13 +870,13 @@
         <v>0.00188888888888889</v>
       </c>
       <c r="B35">
-        <v>340.7674847053584</v>
+        <v>341.9385836179526</v>
       </c>
       <c r="C35">
-        <v>-258.0884624614569</v>
+        <v>-259.931371877193</v>
       </c>
       <c r="D35">
-        <v>-82.6790222439015</v>
+        <v>-82.00721174075969</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -884,13 +884,13 @@
         <v>0.001944444444444446</v>
       </c>
       <c r="B36">
-        <v>320.7183629134503</v>
+        <v>330.4924594203426</v>
       </c>
       <c r="C36">
-        <v>-280.8799840273352</v>
+        <v>-291.9708021770273</v>
       </c>
       <c r="D36">
-        <v>-39.83837888611507</v>
+        <v>-38.52165724331529</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -898,13 +898,13 @@
         <v>0.002000000000000002</v>
       </c>
       <c r="B37">
-        <v>310.7901017688671</v>
+        <v>320.6919059131085</v>
       </c>
       <c r="C37">
-        <v>-292.9055747407845</v>
+        <v>-301.6366653976321</v>
       </c>
       <c r="D37">
-        <v>-17.88452702808263</v>
+        <v>-19.05524051547646</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -912,13 +912,13 @@
         <v>0.002055555555555557</v>
       </c>
       <c r="B38">
-        <v>311.7010970183994</v>
+        <v>316.0476505955533</v>
       </c>
       <c r="C38">
-        <v>-306.8375844902837</v>
+        <v>-309.2114663111557</v>
       </c>
       <c r="D38">
-        <v>-4.863512528115734</v>
+        <v>-6.836184284397532</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -926,13 +926,13 @@
         <v>0.002111111111111113</v>
       </c>
       <c r="B39">
-        <v>307.7178427836321</v>
+        <v>311.0306901675814</v>
       </c>
       <c r="C39">
-        <v>-312.5277038289358</v>
+        <v>-316.789910730419</v>
       </c>
       <c r="D39">
-        <v>4.809861045303776</v>
+        <v>5.759220562837612</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -940,13 +940,13 @@
         <v>0.002166666666666669</v>
       </c>
       <c r="B40">
-        <v>292.9269135896229</v>
+        <v>299.6538097700183</v>
       </c>
       <c r="C40">
-        <v>-310.6280404530395</v>
+        <v>-319.0690940048624</v>
       </c>
       <c r="D40">
-        <v>17.70112686341662</v>
+        <v>19.41528423484414</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -954,13 +954,13 @@
         <v>0.002222222222222224</v>
       </c>
       <c r="B41">
-        <v>281.5978679306586</v>
+        <v>296.539869819868</v>
       </c>
       <c r="C41">
-        <v>-320.8855150918459</v>
+        <v>-335.5670840896747</v>
       </c>
       <c r="D41">
-        <v>39.28764716118731</v>
+        <v>39.02721426980673</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -968,13 +968,13 @@
         <v>0.00227777777777778</v>
       </c>
       <c r="B42">
-        <v>258.8396009440314</v>
+        <v>261.178681307615</v>
       </c>
       <c r="C42">
-        <v>-340.9682760859929</v>
+        <v>-345.5202179399267</v>
       </c>
       <c r="D42">
-        <v>82.12867514196145</v>
+        <v>84.34153663231179</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -982,13 +982,13 @@
         <v>0.002333333333333336</v>
       </c>
       <c r="B43">
-        <v>235.3654750500095</v>
+        <v>238.7136202248598</v>
       </c>
       <c r="C43">
-        <v>-370.2416650604238</v>
+        <v>-379.6525920349727</v>
       </c>
       <c r="D43">
-        <v>134.8761900104143</v>
+        <v>140.9389718101128</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -996,13 +996,13 @@
         <v>0.002388888888888891</v>
       </c>
       <c r="B44">
-        <v>218.0194177176649</v>
+        <v>226.0710023943957</v>
       </c>
       <c r="C44">
-        <v>-393.7865072074543</v>
+        <v>-409.4801718216178</v>
       </c>
       <c r="D44">
-        <v>175.7670894897893</v>
+        <v>183.4091694272221</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1010,13 +1010,13 @@
         <v>0.002444444444444447</v>
       </c>
       <c r="B45">
-        <v>209.5501972265502</v>
+        <v>214.3916565358634</v>
       </c>
       <c r="C45">
-        <v>-404.6629422774085</v>
+        <v>-409.3694231789041</v>
       </c>
       <c r="D45">
-        <v>195.1127450508583</v>
+        <v>194.9777666430407</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1024,13 +1024,13 @@
         <v>0.002500000000000003</v>
       </c>
       <c r="B46">
-        <v>207.2119972420955</v>
+        <v>211.2019534733461</v>
       </c>
       <c r="C46">
-        <v>-414.9291069497997</v>
+        <v>-422.0530105194455</v>
       </c>
       <c r="D46">
-        <v>207.7171097077042</v>
+        <v>210.8510570460993</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1038,13 +1038,13 @@
         <v>0.002555555555555558</v>
       </c>
       <c r="B47">
-        <v>195.0541386540907</v>
+        <v>196.8953502087693</v>
       </c>
       <c r="C47">
-        <v>-405.0172628021583</v>
+        <v>-412.7284821783673</v>
       </c>
       <c r="D47">
-        <v>209.9631241480676</v>
+        <v>215.833131969598</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1052,13 +1052,13 @@
         <v>0.002611111111111114</v>
       </c>
       <c r="B48">
-        <v>175.6861438099169</v>
+        <v>180.6191925565371</v>
       </c>
       <c r="C48">
-        <v>-393.531934398083</v>
+        <v>-406.0688575107579</v>
       </c>
       <c r="D48">
-        <v>217.8457905881661</v>
+        <v>225.4496649542208</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1066,13 +1066,13 @@
         <v>0.00266666666666667</v>
       </c>
       <c r="B49">
-        <v>135.3804681393933</v>
+        <v>143.6169578917894</v>
       </c>
       <c r="C49">
-        <v>-369.7512246564635</v>
+        <v>-385.0529820714775</v>
       </c>
       <c r="D49">
-        <v>234.3707565170701</v>
+        <v>241.436024179688</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1080,13 +1080,13 @@
         <v>0.002722222222222225</v>
       </c>
       <c r="B50">
-        <v>82.50630755213626</v>
+        <v>80.91327880761264</v>
       </c>
       <c r="C50">
-        <v>-340.1392877487045</v>
+        <v>-340.9814545987788</v>
       </c>
       <c r="D50">
-        <v>257.6329801965683</v>
+        <v>260.0681757911662</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1094,13 +1094,13 @@
         <v>0.002777777777777781</v>
       </c>
       <c r="B51">
-        <v>39.75351459905789</v>
+        <v>38.33688358601233</v>
       </c>
       <c r="C51">
-        <v>-320.2294895805497</v>
+        <v>-330.2131230633107</v>
       </c>
       <c r="D51">
-        <v>280.4759749814918</v>
+        <v>291.8762394772983</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1108,13 +1108,13 @@
         <v>0.002833333333333337</v>
       </c>
       <c r="B52">
-        <v>17.72630964809667</v>
+        <v>19.34533665225391</v>
       </c>
       <c r="C52">
-        <v>-310.0786827041102</v>
+        <v>-320.6621691081602</v>
       </c>
       <c r="D52">
-        <v>292.3523730560135</v>
+        <v>301.3168324559063</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1122,13 +1122,13 @@
         <v>0.002888888888888892</v>
       </c>
       <c r="B53">
-        <v>4.822448865837217</v>
+        <v>7.224429923948094</v>
       </c>
       <c r="C53">
-        <v>-311.3947510178738</v>
+        <v>-316.1050468236369</v>
       </c>
       <c r="D53">
-        <v>306.5723021520366</v>
+        <v>308.8806168996888</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1136,13 +1136,13 @@
         <v>0.002944444444444448</v>
       </c>
       <c r="B54">
-        <v>-4.611417855356848</v>
+        <v>-5.578329737867818</v>
       </c>
       <c r="C54">
-        <v>-307.5873356063044</v>
+        <v>-310.2811559329583</v>
       </c>
       <c r="D54">
-        <v>312.1987534616613</v>
+        <v>315.8594856708261</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1150,13 +1150,13 @@
         <v>0.003000000000000004</v>
       </c>
       <c r="B55">
-        <v>-17.53410809814559</v>
+        <v>-19.67921168305048</v>
       </c>
       <c r="C55">
-        <v>-293.1230770425407</v>
+        <v>-299.028522105553</v>
       </c>
       <c r="D55">
-        <v>310.6571851406862</v>
+        <v>318.7077337886035</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1164,13 +1164,13 @@
         <v>0.003055555555555559</v>
       </c>
       <c r="B56">
-        <v>-39.32528794267004</v>
+        <v>-39.50194725234877</v>
       </c>
       <c r="C56">
-        <v>-281.4405327744354</v>
+        <v>-295.5234568665444</v>
       </c>
       <c r="D56">
-        <v>320.7658207171054</v>
+        <v>335.0254041188931</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1178,13 +1178,13 @@
         <v>0.003111111111111115</v>
       </c>
       <c r="B57">
-        <v>-82.29592103184309</v>
+        <v>-84.66213669758487</v>
       </c>
       <c r="C57">
-        <v>-258.4281824695926</v>
+        <v>-261.0868886679164</v>
       </c>
       <c r="D57">
-        <v>340.7241035014356</v>
+        <v>345.7490253655012</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1192,13 +1192,13 @@
         <v>0.00316666666666667</v>
       </c>
       <c r="B58">
-        <v>-134.6860930858454</v>
+        <v>-140.2675816949091</v>
       </c>
       <c r="C58">
-        <v>-235.0308157073302</v>
+        <v>-238.2821240891556</v>
       </c>
       <c r="D58">
-        <v>369.7169087931757</v>
+        <v>378.5497057840647</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1206,13 +1206,13 @@
         <v>0.003222222222222226</v>
       </c>
       <c r="B59">
-        <v>-175.3257809422122</v>
+        <v>-182.7947811889644</v>
       </c>
       <c r="C59">
-        <v>-217.7980966061805</v>
+        <v>-225.2722739018962</v>
       </c>
       <c r="D59">
-        <v>393.1238775483927</v>
+        <v>408.0670550908605</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1220,13 +1220,13 @@
         <v>0.003277777777777782</v>
       </c>
       <c r="B60">
-        <v>-194.5498988207381</v>
+        <v>-195.5728891712413</v>
       </c>
       <c r="C60">
-        <v>-209.3180923866254</v>
+        <v>-214.5545879767822</v>
       </c>
       <c r="D60">
-        <v>403.8679912073634</v>
+        <v>410.1274771480236</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1234,13 +1234,13 @@
         <v>0.003333333333333337</v>
       </c>
       <c r="B61">
-        <v>-207.1978952849965</v>
+        <v>-209.769757870958</v>
       </c>
       <c r="C61">
-        <v>-206.8513931011474</v>
+        <v>-210.5775479204151</v>
       </c>
       <c r="D61">
-        <v>414.0492883861439</v>
+        <v>420.3473057913731</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1248,13 +1248,13 @@
         <v>0.003388888888888893</v>
       </c>
       <c r="B62">
-        <v>-209.4743092972659</v>
+        <v>-214.5631580107743</v>
       </c>
       <c r="C62">
-        <v>-195.1162486408909</v>
+        <v>-197.0603631175163</v>
       </c>
       <c r="D62">
-        <v>404.5905579381568</v>
+        <v>411.6235211282906</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1262,13 +1262,13 @@
         <v>0.003444444444444449</v>
       </c>
       <c r="B63">
-        <v>-217.237544289161</v>
+        <v>-225.4583614282852</v>
       </c>
       <c r="C63">
-        <v>-175.7957897829719</v>
+        <v>-181.3839480588325</v>
       </c>
       <c r="D63">
-        <v>393.0333340721329</v>
+        <v>406.8423094871176</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1276,13 +1276,13 @@
         <v>0.003500000000000004</v>
       </c>
       <c r="B64">
-        <v>-234.7279563524621</v>
+        <v>-242.40870670857</v>
       </c>
       <c r="C64">
-        <v>-135.86456693429</v>
+        <v>-143.7266766680139</v>
       </c>
       <c r="D64">
-        <v>370.592523286752</v>
+        <v>386.1353833765838</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1290,13 +1290,13 @@
         <v>0.00355555555555556</v>
       </c>
       <c r="B65">
-        <v>-258.3668545974878</v>
+        <v>-260.9237566553322</v>
       </c>
       <c r="C65">
-        <v>-82.58159670259681</v>
+        <v>-81.76423713495195</v>
       </c>
       <c r="D65">
-        <v>340.9484513000846</v>
+        <v>342.6879937902841</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1304,13 +1304,13 @@
         <v>0.003611111111111116</v>
       </c>
       <c r="B66">
-        <v>-281.1542183155658</v>
+        <v>-292.9213228455691</v>
       </c>
       <c r="C66">
-        <v>-39.62506789606856</v>
+        <v>-39.07249274496843</v>
       </c>
       <c r="D66">
-        <v>320.7792862116344</v>
+        <v>331.9938155905376</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1318,13 +1318,13 @@
         <v>0.003666666666666671</v>
       </c>
       <c r="B67">
-        <v>-292.7282070196881</v>
+        <v>-301.3595930931082</v>
       </c>
       <c r="C67">
-        <v>-17.93434096174212</v>
+        <v>-19.72568719886047</v>
       </c>
       <c r="D67">
-        <v>310.6625479814302</v>
+        <v>321.0852802919687</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1332,13 +1332,13 @@
         <v>0.003722222222222227</v>
       </c>
       <c r="B68">
-        <v>-306.649807109066</v>
+        <v>-309.4792250860749</v>
       </c>
       <c r="C68">
-        <v>-4.968405094832647</v>
+        <v>-6.579395039547919</v>
       </c>
       <c r="D68">
-        <v>311.6182122038986</v>
+        <v>316.0586201256228</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1346,13 +1346,13 @@
         <v>0.003777777777777783</v>
       </c>
       <c r="B69">
-        <v>-311.9950105153377</v>
+        <v>-317.3439495636209</v>
       </c>
       <c r="C69">
-        <v>4.696350104083805</v>
+        <v>6.387672040851768</v>
       </c>
       <c r="D69">
-        <v>307.2986604112539</v>
+        <v>310.9562775227691</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1360,13 +1360,13 @@
         <v>0.003833333333333338</v>
       </c>
       <c r="B70">
-        <v>-311.0724758608853</v>
+        <v>-319.4582008122438</v>
       </c>
       <c r="C70">
-        <v>17.78135894059362</v>
+        <v>19.59920464410237</v>
       </c>
       <c r="D70">
-        <v>293.2911169202917</v>
+        <v>299.8589961681415</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1374,13 +1374,13 @@
         <v>0.003888888888888894</v>
       </c>
       <c r="B71">
-        <v>-321.4108069728312</v>
+        <v>-334.1603959944509</v>
       </c>
       <c r="C71">
-        <v>39.39359470034364</v>
+        <v>38.56650331953954</v>
       </c>
       <c r="D71">
-        <v>282.0172122724876</v>
+        <v>295.5938926749114</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1388,13 +1388,13 @@
         <v>0.003944444444444449</v>
       </c>
       <c r="B72">
-        <v>-341.477838312827</v>
+        <v>-344.2858624664626</v>
       </c>
       <c r="C72">
-        <v>82.27000232606622</v>
+        <v>83.32660188391598</v>
       </c>
       <c r="D72">
-        <v>259.2078359867608</v>
+        <v>260.9592605825466</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1402,13 +1402,13 @@
         <v>0.004000000000000004</v>
       </c>
       <c r="B73">
-        <v>-371.0158708101241</v>
+        <v>-379.1350963655155</v>
       </c>
       <c r="C73">
-        <v>135.1143585071296</v>
+        <v>140.5136509596538</v>
       </c>
       <c r="D73">
-        <v>235.9015123029945</v>
+        <v>238.6214454058617</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1416,13 +1416,13 @@
         <v>0.00405555555555556</v>
       </c>
       <c r="B74">
-        <v>-393.841250823718</v>
+        <v>-409.715622599448</v>
       </c>
       <c r="C74">
-        <v>175.7710494617634</v>
+        <v>183.5435131153939</v>
       </c>
       <c r="D74">
-        <v>218.0702013619546</v>
+        <v>226.172109484054</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1430,13 +1430,13 @@
         <v>0.004111111111111115</v>
       </c>
       <c r="B75">
-        <v>-403.8698898666205</v>
+        <v>-411.533195345627</v>
       </c>
       <c r="C75">
-        <v>194.7845995274952</v>
+        <v>196.1514783119258</v>
       </c>
       <c r="D75">
-        <v>209.0852903391253</v>
+        <v>215.3817170337011</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1444,13 +1444,13 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="B76">
-        <v>-413.7233902265934</v>
+        <v>-419.463179575602</v>
       </c>
       <c r="C76">
-        <v>207.1264434938622</v>
+        <v>209.6983767101809</v>
       </c>
       <c r="D76">
-        <v>206.5969467327313</v>
+        <v>209.7648028654212</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1458,13 +1458,13 @@
         <v>0.004222222222222225</v>
       </c>
       <c r="B77">
-        <v>-404.2789549089622</v>
+        <v>-409.0715030675568</v>
       </c>
       <c r="C77">
-        <v>209.4786885832435</v>
+        <v>213.9718360639562</v>
       </c>
       <c r="D77">
-        <v>194.8002663257187</v>
+        <v>195.0996670036006</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1472,13 +1472,13 @@
         <v>0.004277777777777781</v>
       </c>
       <c r="B78">
-        <v>-392.8139501070674</v>
+        <v>-405.6880666667877</v>
       </c>
       <c r="C78">
-        <v>217.3580422030258</v>
+        <v>225.031208363366</v>
       </c>
       <c r="D78">
-        <v>175.4559079040415</v>
+        <v>180.6568583034217</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1486,13 +1486,13 @@
         <v>0.004333333333333336</v>
       </c>
       <c r="B79">
-        <v>-370.2862121972205</v>
+        <v>-386.4438069283283</v>
       </c>
       <c r="C79">
-        <v>234.6102379896258</v>
+        <v>242.0556520150822</v>
       </c>
       <c r="D79">
-        <v>135.6759742075946</v>
+        <v>144.3881549132461</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1500,13 +1500,13 @@
         <v>0.004388888888888891</v>
       </c>
       <c r="B80">
-        <v>-340.7302076710563</v>
+        <v>-341.9023862966665</v>
       </c>
       <c r="C80">
-        <v>258.1222525777824</v>
+        <v>259.9717341134783</v>
       </c>
       <c r="D80">
-        <v>82.60795509327393</v>
+        <v>81.93065218318822</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1514,13 +1514,13 @@
         <v>0.004444444444444446</v>
       </c>
       <c r="B81">
-        <v>-320.6961207288805</v>
+        <v>-330.4865396778848</v>
       </c>
       <c r="C81">
-        <v>280.9052376667168</v>
+        <v>292.0108879612206</v>
       </c>
       <c r="D81">
-        <v>39.79088306216377</v>
+        <v>38.47565171666416</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1528,13 +1528,13 @@
         <v>0.004500000000000001</v>
       </c>
       <c r="B82">
-        <v>-310.7834904507071</v>
+        <v>-320.6718441530392</v>
       </c>
       <c r="C82">
-        <v>292.9205307283847</v>
+        <v>301.6333619348096</v>
       </c>
       <c r="D82">
-        <v>17.86295972232233</v>
+        <v>19.0384822182295</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1542,13 +1542,13 @@
         <v>0.004555555555555557</v>
       </c>
       <c r="B83">
-        <v>-311.7043101221284</v>
+        <v>-316.0526983893789</v>
       </c>
       <c r="C83">
-        <v>306.856069066786</v>
+        <v>309.2328533499667</v>
       </c>
       <c r="D83">
-        <v>4.848241055342385</v>
+        <v>6.819845039412201</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1556,13 +1556,13 @@
         <v>0.004611111111111112</v>
       </c>
       <c r="B84">
-        <v>-307.6998689574577</v>
+        <v>-311.0104410968321</v>
       </c>
       <c r="C84">
-        <v>312.5246415486435</v>
+        <v>316.7887265193448</v>
       </c>
       <c r="D84">
-        <v>-4.824772591185848</v>
+        <v>-5.778285422512738</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1570,13 +1570,13 @@
         <v>0.004666666666666667</v>
       </c>
       <c r="B85">
-        <v>-292.9127346059657</v>
+        <v>-299.6418637440617</v>
       </c>
       <c r="C85">
-        <v>310.6359660771395</v>
+        <v>319.0808358919914</v>
       </c>
       <c r="D85">
-        <v>-17.72323147117383</v>
+        <v>-19.43897214792976</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1584,13 +1584,13 @@
         <v>0.004722222222222222</v>
       </c>
       <c r="B86">
-        <v>-281.5718197825181</v>
+        <v>-296.5203867088142</v>
       </c>
       <c r="C86">
-        <v>320.9061628151366</v>
+        <v>335.5902399414231</v>
       </c>
       <c r="D86">
-        <v>-39.33434303261841</v>
+        <v>-39.06985323260892</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1598,13 +1598,13 @@
         <v>0.004777777777777777</v>
       </c>
       <c r="B87">
-        <v>-258.8050183621084</v>
+        <v>-261.1258046027341</v>
       </c>
       <c r="C87">
-        <v>341.0048158457341</v>
+        <v>345.5422107622858</v>
       </c>
       <c r="D87">
-        <v>-82.19979748362576</v>
+        <v>-84.41640615955174</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1612,13 +1612,13 @@
         <v>0.004833333333333333</v>
       </c>
       <c r="B88">
-        <v>-235.3347709178834</v>
+        <v>-238.693012205038</v>
       </c>
       <c r="C88">
-        <v>370.2882896384564</v>
+        <v>379.7155777321015</v>
       </c>
       <c r="D88">
-        <v>-134.953518720573</v>
+        <v>-141.0225655270634</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1626,13 +1626,13 @@
         <v>0.004888888888888888</v>
       </c>
       <c r="B89">
-        <v>-217.9995272684309</v>
+        <v>-226.0519319335812</v>
       </c>
       <c r="C89">
-        <v>393.8026533164964</v>
+        <v>409.491134462568</v>
       </c>
       <c r="D89">
-        <v>-175.8031260480655</v>
+        <v>-183.4392025289867</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1640,13 +1640,13 @@
         <v>0.004944444444444443</v>
       </c>
       <c r="B90">
-        <v>-209.5451182284631</v>
+        <v>-214.3823999610026</v>
       </c>
       <c r="C90">
-        <v>404.682650261208</v>
+        <v>409.3810667018111</v>
       </c>
       <c r="D90">
-        <v>-195.1375320327448</v>
+        <v>-194.9986667408084</v>
       </c>
     </row>
   </sheetData>

--- a/BEMFSimulation/ExcelResults/LineVoltage3000.xlsx
+++ b/BEMFSimulation/ExcelResults/LineVoltage3000.xlsx
@@ -408,13 +408,13 @@
         <v>5.555555555555556e-05</v>
       </c>
       <c r="B2">
-        <v>-196.9169479808245</v>
+        <v>-199.7822197173134</v>
       </c>
       <c r="C2">
-        <v>412.7416451935117</v>
+        <v>415.0378524823536</v>
       </c>
       <c r="D2">
-        <v>-215.8246972126871</v>
+        <v>-215.2556327650403</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -422,13 +422,13 @@
         <v>0.0001111111111111111</v>
       </c>
       <c r="B3">
-        <v>-180.6430857150686</v>
+        <v>-180.247131809806</v>
       </c>
       <c r="C3">
-        <v>406.0691849617052</v>
+        <v>403.8368807175626</v>
       </c>
       <c r="D3">
-        <v>-225.4260992466367</v>
+        <v>-223.5897489077566</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -436,13 +436,13 @@
         <v>0.0001666666666666667</v>
       </c>
       <c r="B4">
-        <v>-143.7101380813436</v>
+        <v>-139.0303528663463</v>
       </c>
       <c r="C4">
-        <v>385.1265728954363</v>
+        <v>379.676600542758</v>
       </c>
       <c r="D4">
-        <v>-241.4164348140927</v>
+        <v>-240.6462476764118</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -450,13 +450,13 @@
         <v>0.0002222222222222222</v>
       </c>
       <c r="B5">
-        <v>-80.98769237863443</v>
+        <v>-84.53823160559121</v>
       </c>
       <c r="C5">
-        <v>341.014467679601</v>
+        <v>348.468380360029</v>
       </c>
       <c r="D5">
-        <v>-260.0267753009666</v>
+        <v>-263.9301487544378</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -464,13 +464,13 @@
         <v>0.0002777777777777778</v>
       </c>
       <c r="B6">
-        <v>-38.38283329104949</v>
+        <v>-40.76240071144571</v>
       </c>
       <c r="C6">
-        <v>330.2222728782306</v>
+        <v>328.4701928676225</v>
       </c>
       <c r="D6">
-        <v>-291.8394395871811</v>
+        <v>-287.7077921561768</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -478,13 +478,13 @@
         <v>0.0003333333333333333</v>
       </c>
       <c r="B7">
-        <v>-19.36092454509125</v>
+        <v>-18.22696421694734</v>
       </c>
       <c r="C7">
-        <v>320.6798031266972</v>
+        <v>317.5027333960078</v>
       </c>
       <c r="D7">
-        <v>-301.3188785816059</v>
+        <v>-299.2757691790605</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -492,13 +492,13 @@
         <v>0.0003888888888888889</v>
       </c>
       <c r="B8">
-        <v>-7.24149721337858</v>
+        <v>-5.047729415069696</v>
       </c>
       <c r="C8">
-        <v>316.100272376837</v>
+        <v>320.211461561597</v>
       </c>
       <c r="D8">
-        <v>-308.8587751634584</v>
+        <v>-315.1637321465274</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -506,13 +506,13 @@
         <v>0.0004444444444444444</v>
       </c>
       <c r="B9">
-        <v>5.558800638109233</v>
+        <v>4.763545198073501</v>
       </c>
       <c r="C9">
-        <v>310.3010162475919</v>
+        <v>315.525418957223</v>
       </c>
       <c r="D9">
-        <v>-315.8598168857011</v>
+        <v>-320.2889641552965</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -520,13 +520,13 @@
         <v>0.0005</v>
       </c>
       <c r="B10">
-        <v>19.65490475810142</v>
+        <v>18.1477851514132</v>
       </c>
       <c r="C10">
-        <v>299.0415301156958</v>
+        <v>300.4251261247578</v>
       </c>
       <c r="D10">
-        <v>-318.6964348737972</v>
+        <v>-318.572911276171</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -534,13 +534,13 @@
         <v>0.0005555555555555556</v>
       </c>
       <c r="B11">
-        <v>39.45893902423531</v>
+        <v>40.35715697607843</v>
       </c>
       <c r="C11">
-        <v>295.543168671478</v>
+        <v>288.9931183173627</v>
       </c>
       <c r="D11">
-        <v>-335.0021076957133</v>
+        <v>-329.3502752934411</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -548,13 +548,13 @@
         <v>0.0006111111111111111</v>
       </c>
       <c r="B12">
-        <v>84.58902365018811</v>
+        <v>84.45786400951644</v>
       </c>
       <c r="C12">
-        <v>261.1389822584678</v>
+        <v>264.8209643479701</v>
       </c>
       <c r="D12">
-        <v>-345.7280059086559</v>
+        <v>-349.2788283574865</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -562,13 +562,13 @@
         <v>0.0006666666666666666</v>
       </c>
       <c r="B13">
-        <v>140.1848970530012</v>
+        <v>137.9706658177407</v>
       </c>
       <c r="C13">
-        <v>238.3032959419315</v>
+        <v>241.0233738397087</v>
       </c>
       <c r="D13">
-        <v>-378.4881929949327</v>
+        <v>-378.9940396574494</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -576,13 +576,13 @@
         <v>0.0007222222222222222</v>
       </c>
       <c r="B14">
-        <v>182.7626114830838</v>
+        <v>179.7472208853166</v>
       </c>
       <c r="C14">
-        <v>225.2900756650847</v>
+        <v>223.3188979260479</v>
       </c>
       <c r="D14">
-        <v>-408.0526871481685</v>
+        <v>-403.0661188113644</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -590,13 +590,13 @@
         <v>0.0007777777777777777</v>
       </c>
       <c r="B15">
-        <v>195.5526917433684</v>
+        <v>199.4299878070907</v>
       </c>
       <c r="C15">
-        <v>214.5643734337345</v>
+        <v>214.5053213392693</v>
       </c>
       <c r="D15">
-        <v>-410.1170651771029</v>
+        <v>-413.9353091463601</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -604,13 +604,13 @@
         <v>0.0008333333333333333</v>
       </c>
       <c r="B16">
-        <v>209.7566337888659</v>
+        <v>212.8403375851227</v>
       </c>
       <c r="C16">
-        <v>210.5889116133731</v>
+        <v>212.5965033052568</v>
       </c>
       <c r="D16">
-        <v>-420.3455454022391</v>
+        <v>-425.4368408903796</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -618,13 +618,13 @@
         <v>0.0008888888888888888</v>
       </c>
       <c r="B17">
-        <v>214.5556595568634</v>
+        <v>214.6094435906482</v>
       </c>
       <c r="C17">
-        <v>197.0818436544673</v>
+        <v>199.7011811193375</v>
       </c>
       <c r="D17">
-        <v>-411.6375032113307</v>
+        <v>-414.3106247099856</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -632,13 +632,13 @@
         <v>0.0009444444444444444</v>
       </c>
       <c r="B18">
-        <v>225.4314221830923</v>
+        <v>222.9675625652876</v>
       </c>
       <c r="C18">
-        <v>181.4067987593628</v>
+        <v>180.3712437009721</v>
       </c>
       <c r="D18">
-        <v>-406.838220942455</v>
+        <v>-403.3388062662596</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -646,13 +646,13 @@
         <v>0.001</v>
       </c>
       <c r="B19">
-        <v>242.3889221532876</v>
+        <v>241.0268632650125</v>
       </c>
       <c r="C19">
-        <v>143.8207268466348</v>
+        <v>139.5796778475765</v>
       </c>
       <c r="D19">
-        <v>-386.2096489999223</v>
+        <v>-380.6065411125891</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -660,13 +660,13 @@
         <v>0.001055555555555556</v>
       </c>
       <c r="B20">
-        <v>260.8825434418426</v>
+        <v>264.794906773841</v>
       </c>
       <c r="C20">
-        <v>81.83845220227067</v>
+        <v>84.61355659842268</v>
       </c>
       <c r="D20">
-        <v>-342.7209956441133</v>
+        <v>-349.4084633722637</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -674,13 +674,13 @@
         <v>0.001111111111111111</v>
       </c>
       <c r="B21">
-        <v>292.8835630440387</v>
+        <v>288.3445051426482</v>
       </c>
       <c r="C21">
-        <v>39.11766572902722</v>
+        <v>40.66208075465482</v>
       </c>
       <c r="D21">
-        <v>-332.0012287730659</v>
+        <v>-329.006585897303</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -688,13 +688,13 @@
         <v>0.001166666666666667</v>
       </c>
       <c r="B22">
-        <v>301.3610552089398</v>
+        <v>299.6275021115658</v>
       </c>
       <c r="C22">
-        <v>19.74306631947351</v>
+        <v>18.43060502789929</v>
       </c>
       <c r="D22">
-        <v>-321.1041215284133</v>
+        <v>-318.0581071394651</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -702,13 +702,13 @@
         <v>0.001222222222222223</v>
       </c>
       <c r="B23">
-        <v>309.4585390134087</v>
+        <v>315.257347505979</v>
       </c>
       <c r="C23">
-        <v>6.597066120010552</v>
+        <v>5.098980876621496</v>
       </c>
       <c r="D23">
-        <v>-316.0556051334192</v>
+        <v>-320.3563283826005</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -716,13 +716,13 @@
         <v>0.001277777777777778</v>
       </c>
       <c r="B24">
-        <v>317.3442598465102</v>
+        <v>320.0792638449087</v>
       </c>
       <c r="C24">
-        <v>-6.368464162908168</v>
+        <v>-4.941015475603422</v>
       </c>
       <c r="D24">
-        <v>-310.975795683602</v>
+        <v>-315.1382483693053</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -730,13 +730,13 @@
         <v>0.001333333333333334</v>
       </c>
       <c r="B25">
-        <v>319.4485021918093</v>
+        <v>318.969120343706</v>
       </c>
       <c r="C25">
-        <v>-19.57664907060217</v>
+        <v>-18.42849559319404</v>
       </c>
       <c r="D25">
-        <v>-299.8718531212072</v>
+        <v>-300.540624750512</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -744,13 +744,13 @@
         <v>0.00138888888888889</v>
       </c>
       <c r="B26">
-        <v>334.1373947661804</v>
+        <v>329.9347214597167</v>
       </c>
       <c r="C26">
-        <v>-38.52444729325431</v>
+        <v>-40.40666545270589</v>
       </c>
       <c r="D26">
-        <v>-295.6129474729261</v>
+        <v>-289.5280560070108</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -758,13 +758,13 @@
         <v>0.001444444444444445</v>
       </c>
       <c r="B27">
-        <v>344.2667622947233</v>
+        <v>350.0734440422418</v>
       </c>
       <c r="C27">
-        <v>-83.25310493706495</v>
+        <v>-84.40931671515688</v>
       </c>
       <c r="D27">
-        <v>-261.0136573576584</v>
+        <v>-265.6641273270849</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -772,13 +772,13 @@
         <v>0.001500000000000001</v>
       </c>
       <c r="B28">
-        <v>379.0696089181544</v>
+        <v>380.2738305421792</v>
       </c>
       <c r="C28">
-        <v>-140.4286163884573</v>
+        <v>-138.4228101306442</v>
       </c>
       <c r="D28">
-        <v>-238.640992529697</v>
+        <v>-241.851020411535</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -786,13 +786,13 @@
         <v>0.001555555555555557</v>
       </c>
       <c r="B29">
-        <v>409.7010837897641</v>
+        <v>403.735978075489</v>
       </c>
       <c r="C29">
-        <v>-183.5114490044051</v>
+        <v>-180.2104948758434</v>
       </c>
       <c r="D29">
-        <v>-226.1896347853589</v>
+        <v>-223.5254831996456</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -800,13 +800,13 @@
         <v>0.001611111111111112</v>
       </c>
       <c r="B30">
-        <v>411.5255558454841</v>
+        <v>414.1476601983492</v>
       </c>
       <c r="C30">
-        <v>-196.1324192383129</v>
+        <v>-199.714773477942</v>
       </c>
       <c r="D30">
-        <v>-215.3931366071711</v>
+        <v>-214.4328867204072</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -814,13 +814,13 @@
         <v>0.001666666666666668</v>
       </c>
       <c r="B31">
-        <v>419.4624131710872</v>
+        <v>425.1443859848797</v>
       </c>
       <c r="C31">
-        <v>-209.6851300090307</v>
+        <v>-212.7579029668392</v>
       </c>
       <c r="D31">
-        <v>-209.7772831620564</v>
+        <v>-212.3864830180405</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -828,13 +828,13 @@
         <v>0.001722222222222224</v>
       </c>
       <c r="B32">
-        <v>409.0866316445353</v>
+        <v>413.9152494052006</v>
       </c>
       <c r="C32">
-        <v>-213.9646119673116</v>
+        <v>-214.579347204013</v>
       </c>
       <c r="D32">
-        <v>-195.1220196772237</v>
+        <v>-199.3359022011877</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -842,13 +842,13 @@
         <v>0.001777777777777779</v>
       </c>
       <c r="B33">
-        <v>405.6844395471493</v>
+        <v>402.9396482615728</v>
       </c>
       <c r="C33">
-        <v>-225.0066212451315</v>
+        <v>-223.050729635926</v>
       </c>
       <c r="D33">
-        <v>-180.6778183020178</v>
+        <v>-179.8889186256468</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -856,13 +856,13 @@
         <v>0.001833333333333335</v>
       </c>
       <c r="B34">
-        <v>386.513581322343</v>
+        <v>380.1910072317802</v>
       </c>
       <c r="C34">
-        <v>-242.0338820322496</v>
+        <v>-240.8611646109961</v>
       </c>
       <c r="D34">
-        <v>-144.4796992900934</v>
+        <v>-139.3298426207841</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -870,13 +870,13 @@
         <v>0.00188888888888889</v>
       </c>
       <c r="B35">
-        <v>341.9385836179526</v>
+        <v>349.1994927267053</v>
       </c>
       <c r="C35">
-        <v>-259.931371877193</v>
+        <v>-264.4801046122082</v>
       </c>
       <c r="D35">
-        <v>-82.00721174075969</v>
+        <v>-84.71938811449712</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -884,13 +884,13 @@
         <v>0.001944444444444446</v>
       </c>
       <c r="B36">
-        <v>330.4924594203426</v>
+        <v>328.8374487809485</v>
       </c>
       <c r="C36">
-        <v>-291.9708021770273</v>
+        <v>-288.0226196572058</v>
       </c>
       <c r="D36">
-        <v>-38.52165724331529</v>
+        <v>-40.8148291237427</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -898,13 +898,13 @@
         <v>0.002000000000000002</v>
       </c>
       <c r="B37">
-        <v>320.6919059131085</v>
+        <v>318.1082055503665</v>
       </c>
       <c r="C37">
-        <v>-301.6366653976321</v>
+        <v>-299.7883637791946</v>
       </c>
       <c r="D37">
-        <v>-19.05524051547646</v>
+        <v>-18.31984177117192</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -912,13 +912,13 @@
         <v>0.002055555555555557</v>
       </c>
       <c r="B38">
-        <v>316.0476505955533</v>
+        <v>320.3488543769422</v>
       </c>
       <c r="C38">
-        <v>-309.2114663111557</v>
+        <v>-315.3754852825198</v>
       </c>
       <c r="D38">
-        <v>-6.836184284397532</v>
+        <v>-4.973369094422452</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -926,13 +926,13 @@
         <v>0.002111111111111113</v>
       </c>
       <c r="B39">
-        <v>311.0306901675814</v>
+        <v>315.5941712143315</v>
       </c>
       <c r="C39">
-        <v>-316.789910730419</v>
+        <v>-320.5172226257121</v>
       </c>
       <c r="D39">
-        <v>5.759220562837612</v>
+        <v>4.923051411380584</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -940,13 +940,13 @@
         <v>0.002166666666666669</v>
       </c>
       <c r="B40">
-        <v>299.6538097700183</v>
+        <v>300.0746163659846</v>
       </c>
       <c r="C40">
-        <v>-319.0690940048624</v>
+        <v>-318.3392993412216</v>
       </c>
       <c r="D40">
-        <v>19.41528423484414</v>
+        <v>18.26468297523698</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -954,13 +954,13 @@
         <v>0.002222222222222224</v>
       </c>
       <c r="B41">
-        <v>296.539869819868</v>
+        <v>289.0507197501279</v>
       </c>
       <c r="C41">
-        <v>-335.5670840896747</v>
+        <v>-329.4085037716266</v>
       </c>
       <c r="D41">
-        <v>39.02721426980673</v>
+        <v>40.35778402149859</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -968,13 +968,13 @@
         <v>0.00227777777777778</v>
       </c>
       <c r="B42">
-        <v>261.178681307615</v>
+        <v>265.2223194577516</v>
       </c>
       <c r="C42">
-        <v>-345.5202179399267</v>
+        <v>-349.6894616142987</v>
       </c>
       <c r="D42">
-        <v>84.34153663231179</v>
+        <v>84.46714215654711</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -982,13 +982,13 @@
         <v>0.002333333333333336</v>
       </c>
       <c r="B43">
-        <v>238.7136202248598</v>
+        <v>241.3186192278052</v>
       </c>
       <c r="C43">
-        <v>-379.6525920349727</v>
+        <v>-379.5802261367114</v>
       </c>
       <c r="D43">
-        <v>140.9389718101128</v>
+        <v>138.2616069089063</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -996,13 +996,13 @@
         <v>0.002388888888888891</v>
       </c>
       <c r="B44">
-        <v>226.0710023943957</v>
+        <v>223.4077673197388</v>
       </c>
       <c r="C44">
-        <v>-409.4801718216178</v>
+        <v>-403.5526709932305</v>
       </c>
       <c r="D44">
-        <v>183.4091694272221</v>
+        <v>180.1449036734918</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1010,13 +1010,13 @@
         <v>0.002444444444444447</v>
       </c>
       <c r="B45">
-        <v>214.3916565358634</v>
+        <v>214.7424933887508</v>
       </c>
       <c r="C45">
-        <v>-409.3694231789041</v>
+        <v>-414.7675970512777</v>
       </c>
       <c r="D45">
-        <v>194.9777666430407</v>
+        <v>200.0251036625269</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1024,13 +1024,13 @@
         <v>0.002500000000000003</v>
       </c>
       <c r="B46">
-        <v>211.2019534733461</v>
+        <v>213.0072684672361</v>
       </c>
       <c r="C46">
-        <v>-422.0530105194455</v>
+        <v>-426.4499743869718</v>
       </c>
       <c r="D46">
-        <v>210.8510570460993</v>
+        <v>213.4427059197357</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1038,13 +1038,13 @@
         <v>0.002555555555555558</v>
       </c>
       <c r="B47">
-        <v>196.8953502087693</v>
+        <v>199.7564290144571</v>
       </c>
       <c r="C47">
-        <v>-412.7284821783673</v>
+        <v>-415.0164498823127</v>
       </c>
       <c r="D47">
-        <v>215.833131969598</v>
+        <v>215.2600208678555</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1052,13 +1052,13 @@
         <v>0.002611111111111114</v>
       </c>
       <c r="B48">
-        <v>180.6191925565371</v>
+        <v>180.2115478248508</v>
       </c>
       <c r="C48">
-        <v>-406.0688575107579</v>
+        <v>-403.8200287813226</v>
       </c>
       <c r="D48">
-        <v>225.4496649542208</v>
+        <v>223.6084809564719</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1066,13 +1066,13 @@
         <v>0.00266666666666667</v>
       </c>
       <c r="B49">
-        <v>143.6169578917894</v>
+        <v>138.9501404223714</v>
       </c>
       <c r="C49">
-        <v>-385.0529820714775</v>
+        <v>-379.6277241532897</v>
       </c>
       <c r="D49">
-        <v>241.436024179688</v>
+        <v>240.6775837309183</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1080,13 +1080,13 @@
         <v>0.002722222222222225</v>
       </c>
       <c r="B50">
-        <v>80.91327880761264</v>
+        <v>84.46617361628036</v>
       </c>
       <c r="C50">
-        <v>-340.9814545987788</v>
+        <v>-348.4313675107381</v>
       </c>
       <c r="D50">
-        <v>260.0681757911662</v>
+        <v>263.9651938944577</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1094,13 +1094,13 @@
         <v>0.002777777777777781</v>
       </c>
       <c r="B51">
-        <v>38.33688358601233</v>
+        <v>40.71352903329633</v>
       </c>
       <c r="C51">
-        <v>-330.2131230633107</v>
+        <v>-328.4476007650749</v>
       </c>
       <c r="D51">
-        <v>291.8762394772983</v>
+        <v>287.7340717317786</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1108,13 +1108,13 @@
         <v>0.002833333333333337</v>
       </c>
       <c r="B52">
-        <v>19.34533665225391</v>
+        <v>18.20497625799833</v>
       </c>
       <c r="C52">
-        <v>-320.6621691081602</v>
+        <v>-317.4984138189745</v>
       </c>
       <c r="D52">
-        <v>301.3168324559063</v>
+        <v>299.2934375609761</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1122,13 +1122,13 @@
         <v>0.002888888888888892</v>
       </c>
       <c r="B53">
-        <v>7.224429923948094</v>
+        <v>5.032592418864056</v>
       </c>
       <c r="C53">
-        <v>-316.1050468236369</v>
+        <v>-320.217880216846</v>
       </c>
       <c r="D53">
-        <v>308.8806168996888</v>
+        <v>315.1852877979819</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1136,13 +1136,13 @@
         <v>0.002944444444444448</v>
       </c>
       <c r="B54">
-        <v>-5.578329737867818</v>
+        <v>-4.779312944961646</v>
       </c>
       <c r="C54">
-        <v>-310.2811559329583</v>
+        <v>-315.5036389305408</v>
       </c>
       <c r="D54">
-        <v>315.8594856708261</v>
+        <v>320.2829518755024</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1150,13 +1150,13 @@
         <v>0.003000000000000004</v>
       </c>
       <c r="B55">
-        <v>-19.67921168305048</v>
+        <v>-18.17041391994719</v>
       </c>
       <c r="C55">
-        <v>-299.028522105553</v>
+        <v>-300.4100102534633</v>
       </c>
       <c r="D55">
-        <v>318.7077337886035</v>
+        <v>318.5804241734105</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1164,13 +1164,13 @@
         <v>0.003055555555555559</v>
       </c>
       <c r="B56">
-        <v>-39.50194725234877</v>
+        <v>-40.4048743635406</v>
       </c>
       <c r="C56">
-        <v>-295.5234568665444</v>
+        <v>-288.9646170611607</v>
       </c>
       <c r="D56">
-        <v>335.0254041188931</v>
+        <v>329.3694914247012</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1178,13 +1178,13 @@
         <v>0.003111111111111115</v>
       </c>
       <c r="B57">
-        <v>-84.66213669758487</v>
+        <v>-84.53067880874326</v>
       </c>
       <c r="C57">
-        <v>-261.0868886679164</v>
+        <v>-264.7862322023903</v>
       </c>
       <c r="D57">
-        <v>345.7490253655012</v>
+        <v>349.3169110111336</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1192,13 +1192,13 @@
         <v>0.00316666666666667</v>
       </c>
       <c r="B58">
-        <v>-140.2675816949091</v>
+        <v>-138.0492636267969</v>
       </c>
       <c r="C58">
-        <v>-238.2821240891556</v>
+        <v>-240.9915416239396</v>
       </c>
       <c r="D58">
-        <v>378.5497057840647</v>
+        <v>379.0408052507365</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1206,13 +1206,13 @@
         <v>0.003222222222222226</v>
       </c>
       <c r="B59">
-        <v>-182.7947811889644</v>
+        <v>-179.7842805827006</v>
       </c>
       <c r="C59">
-        <v>-225.2722739018962</v>
+        <v>-223.299227274494</v>
       </c>
       <c r="D59">
-        <v>408.0670550908605</v>
+        <v>403.0835078571946</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1220,13 +1220,13 @@
         <v>0.003277777777777782</v>
       </c>
       <c r="B60">
-        <v>-195.5728891712413</v>
+        <v>-199.4568919802423</v>
       </c>
       <c r="C60">
-        <v>-214.5545879767822</v>
+        <v>-214.500984238938</v>
       </c>
       <c r="D60">
-        <v>410.1274771480236</v>
+        <v>413.9578762191803</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1234,13 +1234,13 @@
         <v>0.003333333333333337</v>
       </c>
       <c r="B61">
-        <v>-209.769757870958</v>
+        <v>-212.8483403457817</v>
       </c>
       <c r="C61">
-        <v>-210.5775479204151</v>
+        <v>-212.5888710782591</v>
       </c>
       <c r="D61">
-        <v>420.3473057913731</v>
+        <v>425.4372114240408</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1248,13 +1248,13 @@
         <v>0.003388888888888893</v>
       </c>
       <c r="B62">
-        <v>-214.5631580107743</v>
+        <v>-214.6118352560986</v>
       </c>
       <c r="C62">
-        <v>-197.0603631175163</v>
+        <v>-199.6747178302395</v>
       </c>
       <c r="D62">
-        <v>411.6235211282906</v>
+        <v>414.2865530863381</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1262,13 +1262,13 @@
         <v>0.003444444444444449</v>
       </c>
       <c r="B63">
-        <v>-225.4583614282852</v>
+        <v>-222.9881394425869</v>
       </c>
       <c r="C63">
-        <v>-181.3839480588325</v>
+        <v>-180.3361808386653</v>
       </c>
       <c r="D63">
-        <v>406.8423094871176</v>
+        <v>403.3243202812523</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1276,13 +1276,13 @@
         <v>0.003500000000000004</v>
       </c>
       <c r="B64">
-        <v>-242.40870670857</v>
+        <v>-241.0595831370419</v>
       </c>
       <c r="C64">
-        <v>-143.7266766680139</v>
+        <v>-139.4994342725006</v>
       </c>
       <c r="D64">
-        <v>386.1353833765838</v>
+        <v>380.5590174095425</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1290,13 +1290,13 @@
         <v>0.00355555555555556</v>
       </c>
       <c r="B65">
-        <v>-260.9237566553322</v>
+        <v>-264.829350083391</v>
       </c>
       <c r="C65">
-        <v>-81.76423713495195</v>
+        <v>-84.54044806480903</v>
       </c>
       <c r="D65">
-        <v>342.6879937902841</v>
+        <v>349.3697981482</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1304,13 +1304,13 @@
         <v>0.003611111111111116</v>
       </c>
       <c r="B66">
-        <v>-292.9213228455691</v>
+        <v>-288.373735840237</v>
       </c>
       <c r="C66">
-        <v>-39.07249274496843</v>
+        <v>-40.61423613939851</v>
       </c>
       <c r="D66">
-        <v>331.9938155905376</v>
+        <v>328.9879719796355</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1318,13 +1318,13 @@
         <v>0.003666666666666671</v>
       </c>
       <c r="B67">
-        <v>-301.3595930931082</v>
+        <v>-299.6400478450968</v>
       </c>
       <c r="C67">
-        <v>-19.72568719886047</v>
+        <v>-18.40811634676906</v>
       </c>
       <c r="D67">
-        <v>321.0852802919687</v>
+        <v>318.0481641918659</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1332,13 +1332,13 @@
         <v>0.003722222222222227</v>
       </c>
       <c r="B68">
-        <v>-309.4792250860749</v>
+        <v>-315.2793617689188</v>
       </c>
       <c r="C68">
-        <v>-6.579395039547919</v>
+        <v>-5.083746054744978</v>
       </c>
       <c r="D68">
-        <v>316.0586201256228</v>
+        <v>320.3631078236638</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1346,13 +1346,13 @@
         <v>0.003777777777777783</v>
       </c>
       <c r="B69">
-        <v>-317.3439495636209</v>
+        <v>-320.0736368121607</v>
       </c>
       <c r="C69">
-        <v>6.387672040851768</v>
+        <v>4.957274051350794</v>
       </c>
       <c r="D69">
-        <v>310.9562775227691</v>
+        <v>315.1163627608099</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1360,13 +1360,13 @@
         <v>0.003833333333333338</v>
       </c>
       <c r="B70">
-        <v>-319.4582008122438</v>
+        <v>-318.97833652344</v>
       </c>
       <c r="C70">
-        <v>19.59920464410237</v>
+        <v>18.45094704164232</v>
       </c>
       <c r="D70">
-        <v>299.8589961681415</v>
+        <v>300.5273894817977</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1374,13 +1374,13 @@
         <v>0.003888888888888894</v>
       </c>
       <c r="B71">
-        <v>-334.1603959944509</v>
+        <v>-329.9555073848763</v>
       </c>
       <c r="C71">
-        <v>38.56650331953954</v>
+        <v>40.45420257132615</v>
       </c>
       <c r="D71">
-        <v>295.5938926749114</v>
+        <v>289.5013048135502</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1388,13 +1388,13 @@
         <v>0.003944444444444449</v>
       </c>
       <c r="B72">
-        <v>-344.2858624664626</v>
+        <v>-350.110843005387</v>
       </c>
       <c r="C72">
-        <v>83.32660188391598</v>
+        <v>84.48215814910192</v>
       </c>
       <c r="D72">
-        <v>260.9592605825466</v>
+        <v>265.6286848562851</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1402,13 +1402,13 @@
         <v>0.004000000000000004</v>
       </c>
       <c r="B73">
-        <v>-379.1350963655155</v>
+        <v>-380.3210577853656</v>
       </c>
       <c r="C73">
-        <v>140.5136509596538</v>
+        <v>138.5024038169752</v>
       </c>
       <c r="D73">
-        <v>238.6214454058617</v>
+        <v>241.8186539683904</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1416,13 +1416,13 @@
         <v>0.00405555555555556</v>
       </c>
       <c r="B74">
-        <v>-409.715622599448</v>
+        <v>-403.7525598236848</v>
       </c>
       <c r="C74">
-        <v>183.5435131153939</v>
+        <v>180.2472135971433</v>
       </c>
       <c r="D74">
-        <v>226.172109484054</v>
+        <v>223.5053462265414</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1430,13 +1430,13 @@
         <v>0.004111111111111115</v>
       </c>
       <c r="B75">
-        <v>-411.533195345627</v>
+        <v>-414.167467528027</v>
       </c>
       <c r="C75">
-        <v>196.1514783119258</v>
+        <v>199.7401938677555</v>
       </c>
       <c r="D75">
-        <v>215.3817170337011</v>
+        <v>214.4272736602715</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1444,13 +1444,13 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="B76">
-        <v>-419.463179575602</v>
+        <v>-425.1458307893535</v>
       </c>
       <c r="C76">
-        <v>209.6983767101809</v>
+        <v>212.7666933503773</v>
       </c>
       <c r="D76">
-        <v>209.7648028654212</v>
+        <v>212.3791374389762</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1458,13 +1458,13 @@
         <v>0.004222222222222225</v>
       </c>
       <c r="B77">
-        <v>-409.0715030675568</v>
+        <v>-413.8936658827197</v>
       </c>
       <c r="C77">
-        <v>213.9718360639562</v>
+        <v>214.5837286924534</v>
       </c>
       <c r="D77">
-        <v>195.0996670036006</v>
+        <v>199.3099371902663</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1472,13 +1472,13 @@
         <v>0.004277777777777781</v>
       </c>
       <c r="B78">
-        <v>-405.6880666667877</v>
+        <v>-402.9240883837805</v>
       </c>
       <c r="C78">
-        <v>225.031208363366</v>
+        <v>223.0703388096304</v>
       </c>
       <c r="D78">
-        <v>180.6568583034217</v>
+        <v>179.8537495741501</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1486,13 +1486,13 @@
         <v>0.004333333333333336</v>
       </c>
       <c r="B79">
-        <v>-386.4438069283283</v>
+        <v>-380.142327276256</v>
       </c>
       <c r="C79">
-        <v>242.0556520150822</v>
+        <v>240.89255758255</v>
       </c>
       <c r="D79">
-        <v>144.3881549132461</v>
+        <v>139.249769693706</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1500,13 +1500,13 @@
         <v>0.004388888888888891</v>
       </c>
       <c r="B80">
-        <v>-341.9023862966665</v>
+        <v>-349.1593380950231</v>
       </c>
       <c r="C80">
-        <v>259.9717341134783</v>
+        <v>264.5128466375329</v>
       </c>
       <c r="D80">
-        <v>81.93065218318822</v>
+        <v>84.64649145749016</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1514,13 +1514,13 @@
         <v>0.004444444444444446</v>
       </c>
       <c r="B81">
-        <v>-330.4865396778848</v>
+        <v>-328.8182789599003</v>
       </c>
       <c r="C81">
-        <v>292.0108879612206</v>
+        <v>288.0519556223407</v>
       </c>
       <c r="D81">
-        <v>38.47565171666416</v>
+        <v>40.76632333755964</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1528,13 +1528,13 @@
         <v>0.004500000000000001</v>
       </c>
       <c r="B82">
-        <v>-320.6718441530392</v>
+        <v>-318.1010844338173</v>
       </c>
       <c r="C82">
-        <v>301.6333619348096</v>
+        <v>299.8038260848581</v>
       </c>
       <c r="D82">
-        <v>19.0384822182295</v>
+        <v>18.2972583489592</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1542,13 +1542,13 @@
         <v>0.004555555555555557</v>
       </c>
       <c r="B83">
-        <v>-316.0526983893789</v>
+        <v>-320.3565167125828</v>
       </c>
       <c r="C83">
-        <v>309.2328533499667</v>
+        <v>315.3983848032524</v>
       </c>
       <c r="D83">
-        <v>6.819845039412201</v>
+        <v>4.958131909330447</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1556,13 +1556,13 @@
         <v>0.004611111111111112</v>
       </c>
       <c r="B84">
-        <v>-311.0104410968321</v>
+        <v>-315.5701713165029</v>
       </c>
       <c r="C84">
-        <v>316.7887265193448</v>
+        <v>320.5090623277327</v>
       </c>
       <c r="D84">
-        <v>-5.778285422512738</v>
+        <v>-4.938891011229828</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1570,13 +1570,13 @@
         <v>0.004666666666666667</v>
       </c>
       <c r="B85">
-        <v>-299.6418637440617</v>
+        <v>-300.0590315687646</v>
       </c>
       <c r="C85">
-        <v>319.0808358919914</v>
+        <v>318.3458089197701</v>
       </c>
       <c r="D85">
-        <v>-19.43897214792976</v>
+        <v>-18.28677735100551</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1584,13 +1584,13 @@
         <v>0.004722222222222222</v>
       </c>
       <c r="B86">
-        <v>-296.5203867088142</v>
+        <v>-289.0250810492221</v>
       </c>
       <c r="C86">
-        <v>335.5902399414231</v>
+        <v>329.4305169357383</v>
       </c>
       <c r="D86">
-        <v>-39.06985323260892</v>
+        <v>-40.40543588651619</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1598,13 +1598,13 @@
         <v>0.004777777777777777</v>
       </c>
       <c r="B87">
-        <v>-261.1258046027341</v>
+        <v>-265.1871769126323</v>
       </c>
       <c r="C87">
-        <v>345.5422107622858</v>
+        <v>349.7279967108016</v>
       </c>
       <c r="D87">
-        <v>-84.41640615955174</v>
+        <v>-84.54081979816939</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1612,13 +1612,13 @@
         <v>0.004833333333333333</v>
       </c>
       <c r="B88">
-        <v>-238.693012205038</v>
+        <v>-241.28708322825</v>
       </c>
       <c r="C88">
-        <v>379.7155777321015</v>
+        <v>379.6276389285694</v>
       </c>
       <c r="D88">
-        <v>-141.0225655270634</v>
+        <v>-138.3405557003194</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1626,13 +1626,13 @@
         <v>0.004888888888888888</v>
       </c>
       <c r="B89">
-        <v>-226.0519319335812</v>
+        <v>-223.3868885499195</v>
       </c>
       <c r="C89">
-        <v>409.491134462568</v>
+        <v>403.5678730577415</v>
       </c>
       <c r="D89">
-        <v>-183.4392025289867</v>
+        <v>-180.180984507822</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1640,13 +1640,13 @@
         <v>0.004944444444444443</v>
       </c>
       <c r="B90">
-        <v>-214.3823999610026</v>
+        <v>-214.7391774470891</v>
       </c>
       <c r="C90">
-        <v>409.3810667018111</v>
+        <v>414.7914887705821</v>
       </c>
       <c r="D90">
-        <v>-194.9986667408084</v>
+        <v>-200.052311323493</v>
       </c>
     </row>
   </sheetData>
